--- a/data/trans_bre/IP18A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 7,83</t>
+          <t>-12,41; 8,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 16,76</t>
+          <t>-3,11; 16,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 12,81</t>
+          <t>-12,25; 12,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 41,77</t>
+          <t>-12,5; 39,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 53,97</t>
+          <t>-48,36; 58,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 149,05</t>
+          <t>-15,39; 130,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 86,46</t>
+          <t>-48,71; 92,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 8,47</t>
+          <t>-0,97; 8,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 9,23</t>
+          <t>0,46; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,49</t>
+          <t>-6,59; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 14,47</t>
+          <t>-10,32; 14,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 51,24</t>
+          <t>-4,81; 52,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 58,14</t>
+          <t>1,65; 61,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 15,49</t>
+          <t>-29,72; 14,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 91,11</t>
+          <t>-36,56; 82,71</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 10,87</t>
+          <t>-5,74; 10,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 1,02</t>
+          <t>-13,8; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,6</t>
+          <t>-4,39; 10,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 7,7</t>
+          <t>-20,02; 7,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 51,84</t>
+          <t>-20,52; 50,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,59; 5,11</t>
+          <t>-50,23; 4,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 68,31</t>
+          <t>-18,32; 66,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,51; 103,41</t>
+          <t>-81,72; 90,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,81</t>
+          <t>-0,68; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,02</t>
+          <t>-1,3; 6,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,01</t>
+          <t>-4,02; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 9,64</t>
+          <t>-9,09; 8,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 37,15</t>
+          <t>-3,3; 36,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 34,51</t>
+          <t>-6,28; 34,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 17,15</t>
+          <t>-19,59; 15,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 57,99</t>
+          <t>-37,6; 53,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,85%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,76; 7,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 16,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,16; 12,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,28; 34,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,71; 49,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; 138,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,97; 94,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>148,31%</t>
+          <t>10,55%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 8,91</t>
+          <t>-0,73; 8,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 16,76</t>
+          <t>0,12; 8,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 12,04</t>
+          <t>-6,11; 2,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 39,09</t>
+          <t>-9,85; 14,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 58,2</t>
+          <t>-3,72; 53,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 130,15</t>
+          <t>0,57; 57,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,71; 92,78</t>
+          <t>-28,62; 12,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,03; 89,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>-26,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,36%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-38,18%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,61</t>
+          <t>-5,53; 10,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,12</t>
+          <t>-14,0; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 2,36</t>
+          <t>-4,09; 11,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 14,16</t>
+          <t>-20,04; 7,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 52,24</t>
+          <t>-18,99; 55,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 61,04</t>
+          <t>-49,54; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 14,0</t>
+          <t>-18,32; 69,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 82,71</t>
+          <t>-81,25; 119,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,44%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-38,73%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 10,94</t>
+          <t>-0,62; 7,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,78</t>
+          <t>-1,46; 5,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 10,67</t>
+          <t>-4,07; 3,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 7,57</t>
+          <t>-8,15; 10,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 50,95</t>
+          <t>-3,57; 38,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 4,31</t>
+          <t>-7,04; 33,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 66,37</t>
+          <t>-18,97; 19,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,72; 90,14</t>
+          <t>-35,11; 69,03</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15,13%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 6,72</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 6,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 2,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 8,92</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 36,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 34,6</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-19,59; 15,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,6; 53,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
